--- a/inventory exposure sim/uniswap_v3_lp_analysis_r1.1.xlsx
+++ b/inventory exposure sim/uniswap_v3_lp_analysis_r1.1.xlsx
@@ -518,13 +518,13 @@
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4304160688665792</v>
+        <v>-0.4267425320056861</v>
       </c>
       <c r="G3" t="n">
-        <v>0.430416068866557</v>
+        <v>-0.421744981281047</v>
       </c>
       <c r="H3" t="n">
-        <v>99.99999999999484</v>
+        <v>98.82890728019288</v>
       </c>
     </row>
     <row r="4">
@@ -544,13 +544,13 @@
         <v>97.65530775895837</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4285714285714226</v>
+        <v>-0.4249291784702569</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4235312028733285</v>
+        <v>-0.4100613845468226</v>
       </c>
       <c r="H4" t="n">
-        <v>98.82394733711135</v>
+        <v>96.50111249668515</v>
       </c>
     </row>
     <row r="5">
@@ -570,13 +570,13 @@
         <v>95.33482196456308</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4267425320056972</v>
+        <v>-0.4231311706629048</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4117498115248308</v>
+        <v>-0.3985755992018447</v>
       </c>
       <c r="H5" t="n">
-        <v>96.48670583398371</v>
+        <v>94.19669994470277</v>
       </c>
     </row>
     <row r="6">
@@ -596,13 +596,13 @@
         <v>93.03752865628917</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4249291784702569</v>
+        <v>-0.4213483146067398</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4001705814948631</v>
+        <v>-0.3872809822789258</v>
       </c>
       <c r="H6" t="n">
-        <v>94.173476845124</v>
+        <v>91.91468646086545</v>
       </c>
     </row>
     <row r="7">
@@ -622,13 +622,13 @@
         <v>90.7624499109593</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4231311706629048</v>
+        <v>-0.4195804195804231</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3887866791489003</v>
+        <v>-0.3761711465014916</v>
       </c>
       <c r="H7" t="n">
-        <v>91.88325183885692</v>
+        <v>89.6541232495214</v>
       </c>
     </row>
     <row r="8">
@@ -648,13 +648,13 @@
         <v>88.50864195634988</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4213483146067398</v>
+        <v>-0.417827298050133</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3775915369149896</v>
+        <v>-0.3652399474717738</v>
       </c>
       <c r="H8" t="n">
-        <v>89.61505809449123</v>
+        <v>87.41409409491251</v>
       </c>
     </row>
     <row r="9">
@@ -674,13 +674,13 @@
         <v>86.27519339382205</v>
       </c>
       <c r="F9" t="n">
-        <v>0.419580419580412</v>
+        <v>-0.4160887656033285</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3665788398338199</v>
+        <v>-0.3544814716036737</v>
       </c>
       <c r="H9" t="n">
-        <v>87.36795682706197</v>
+        <v>85.19371367541628</v>
       </c>
     </row>
     <row r="10">
@@ -700,13 +700,13 @@
         <v>84.06122352246483</v>
       </c>
       <c r="F10" t="n">
-        <v>0.417827298050133</v>
+        <v>-0.4143646408839907</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3557425128985159</v>
+        <v>-0.3438900247496601</v>
       </c>
       <c r="H10" t="n">
-        <v>85.14104142037941</v>
+        <v>82.9921259729154</v>
       </c>
     </row>
     <row r="11">
@@ -726,13 +726,13 @@
         <v>81.86588075782268</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4160887656033507</v>
+        <v>-0.4126547455295726</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3450767091300877</v>
+        <v>-0.3334601214759148</v>
       </c>
       <c r="H11" t="n">
-        <v>82.93343576092668</v>
+        <v>80.80850277099687</v>
       </c>
     </row>
     <row r="12">
@@ -752,13 +752,13 @@
         <v>79.68834113880321</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4143646408839796</v>
+        <v>-0.4109589041095929</v>
       </c>
       <c r="G12" t="n">
-        <v>0.334575798339487</v>
+        <v>-0.3231864749417612</v>
       </c>
       <c r="H12" t="n">
-        <v>80.74429266592921</v>
+        <v>78.64204223582783</v>
       </c>
     </row>
     <row r="13">
@@ -778,13 +778,13 @@
         <v>77.52780691684467</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4126547455295615</v>
+        <v>-0.4092769440654842</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3242343565291739</v>
+        <v>-0.3130639873435648</v>
       </c>
       <c r="H13" t="n">
-        <v>78.57279239890543</v>
+        <v>76.49196757427768</v>
       </c>
     </row>
     <row r="14">
@@ -804,13 +804,13 @@
         <v>75.38350522186647</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4109589041095818</v>
+        <v>-0.4076086956521729</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3140471558919389</v>
+        <v>-0.3030877408869204</v>
       </c>
       <c r="H14" t="n">
-        <v>76.4181412670398</v>
+        <v>74.35752576425797</v>
       </c>
     </row>
     <row r="15">
@@ -830,13 +830,13 @@
         <v>73.25468679992628</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4092769440654731</v>
+        <v>-0.4059539918809141</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3040091553680124</v>
+        <v>-0.2932529892521019</v>
       </c>
       <c r="H15" t="n">
-        <v>74.27957029491974</v>
+        <v>72.23798635243551</v>
       </c>
     </row>
     <row r="16">
@@ -856,13 +856,13 @@
         <v>71.14062481788449</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4076086956521729</v>
+        <v>-0.4043126684636134</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2941154917234456</v>
+        <v>-0.2835551495213418</v>
       </c>
       <c r="H16" t="n">
-        <v>72.1563339694855</v>
+        <v>70.13264031494494</v>
       </c>
     </row>
     <row r="17">
@@ -882,13 +882,13 @@
         <v>69.0406137307106</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4059539918809252</v>
+        <v>-0.4026845637583931</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2843614711159459</v>
+        <v>-0.2739897945386094</v>
       </c>
       <c r="H17" t="n">
-        <v>70.04770905156047</v>
+        <v>68.04079897708735</v>
       </c>
     </row>
     <row r="18">
@@ -908,13 +908,13 @@
         <v>66.95396820738463</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4043126684636134</v>
+        <v>-0.4010695187165791</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2747425611173249</v>
+        <v>-0.2645526456748981</v>
       </c>
       <c r="H18" t="n">
-        <v>67.95299344968477</v>
+        <v>65.96179298827434</v>
       </c>
     </row>
     <row r="19">
@@ -934,13 +934,13 @@
         <v>64.88002211163185</v>
       </c>
       <c r="F19" t="n">
-        <v>0.402684563758382</v>
+        <v>-0.3994673768308865</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2652543831633158</v>
+        <v>-0.2552395659724649</v>
       </c>
       <c r="H19" t="n">
-        <v>65.87150515222461</v>
+        <v>63.89497134844127</v>
       </c>
     </row>
     <row r="20">
@@ -960,13 +960,13 @@
         <v>62.81812753398967</v>
       </c>
       <c r="F20" t="n">
-        <v>0.401069518716568</v>
+        <v>-0.3978779840848823</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2558927054030935</v>
+        <v>-0.2460465536460621</v>
       </c>
       <c r="H20" t="n">
-        <v>63.8025812138395</v>
+        <v>61.83970048304334</v>
       </c>
     </row>
     <row r="21">
@@ -986,13 +986,13 @@
         <v>60.76765387195815</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3994673768308976</v>
+        <v>-0.3963011889035695</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2466534359246042</v>
+        <v>-0.2369697359177358</v>
       </c>
       <c r="H21" t="n">
-        <v>61.74557679312508</v>
+        <v>59.79536336324159</v>
       </c>
     </row>
     <row r="22">
@@ -1012,13 +1012,13 @@
         <v>58.72798695519831</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3978779840848823</v>
+        <v>-0.3947368421052588</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2375326163313707</v>
+        <v>-0.2280053631656176</v>
       </c>
       <c r="H22" t="n">
-        <v>59.69986423795092</v>
+        <v>57.76135866862375</v>
       </c>
     </row>
     <row r="23">
@@ -1038,13 +1038,13 @@
         <v>56.69852821295694</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3963011889035695</v>
+        <v>-0.3931847968545177</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2285264156495437</v>
+        <v>-0.2191498033675021</v>
       </c>
       <c r="H23" t="n">
-        <v>57.66483221556778</v>
+        <v>55.73709998980193</v>
       </c>
     </row>
     <row r="24">
@@ -1064,13 +1064,13 @@
         <v>54.6786938810849</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3947368421052699</v>
+        <v>-0.3916449086161844</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2196311245450611</v>
+        <v>-0.2103995368209155</v>
       </c>
       <c r="H24" t="n">
-        <v>55.63988488474785</v>
+        <v>53.72201506827425</v>
       </c>
     </row>
     <row r="25">
@@ -1090,13 +1090,13 @@
         <v>52.6679142461884</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3931847968545288</v>
+        <v>-0.3901170351105376</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2108431498315744</v>
+        <v>-0.2017511511241521</v>
       </c>
       <c r="H25" t="n">
-        <v>53.62444110716277</v>
+        <v>51.7155450714904</v>
       </c>
     </row>
     <row r="26">
@@ -1116,13 +1116,13 @@
         <v>50.66563292462154</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3916449086161844</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2021590092524228</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>51.61793369578577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
